--- a/pred_ohlcv/54_21/2019-10-21 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 LINK ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>21490.51295937536</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>36844.34254000196</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>33595.44444000196</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>44385.56634000196</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>45607.93944000196</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>45636.30894000196</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>45652.50894000196</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>47611.08284000196</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>47622.19949465714</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>46444.67264931231</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>46443.67264931231</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>46442.67264931231</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>67584.27932342874</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>70459.27932342874</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>74429.96202342874</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>75806.20392342874</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>74530.11512342874</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>79671.9228615126</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>85257.56386151261</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>98392.57449202107</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>99242.81759202108</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>102071.9484920211</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>98776.06429202108</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>98716.83819202108</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>96569.15759202107</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>96663.26179202108</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>97563.80979202107</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>97513.37619202107</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>96454.60809202107</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>99811.77319202106</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>102761.6713920211</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>104653.9437895017</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>104512.6297568041</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>106222.6887568041</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>106236.5457568041</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>106225.2553568041</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>106218.4087351825</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>105652.3357351825</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>105669.4749351825</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>105648.6132351825</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>105074.2029351825</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>109692.8055351825</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>107975.1627351825</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>107832.0291351825</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>107794.0151351825</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>107784.6774351825</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>108804.3531351826</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>108801.3531351826</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>110027.4906351825</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>110118.9995351825</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>112894.9602351825</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>113162.5216351826</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>113154.0098351826</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>112235.5522351826</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>112219.7767351826</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>111726.5385351826</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>111725.8705351825</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>112737.9001950602</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>115938.2332396388</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>116031.9182396388</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>118484.0213396388</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>118703.4211396388</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>120806.6649990096</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>120731.2306990096</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>120617.0006286814</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>120587.0006286814</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>121612.0898391904</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>122219.8045639479</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>120846.6204887053</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>120784.0888887053</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>120345.5932887053</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>119884.2757887053</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>117772.6569887053</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>117832.5340887053</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>115964.5339887053</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>115977.1418887053</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>115705.3617887054</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>115679.8138887054</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>115812.4221887054</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>118143.9095887054</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>118572.0379887054</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>117680.8928887054</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>118360.2448887054</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>119279.2959887054</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>118270.0469887054</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>118215.9973887054</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>125597.5987887054</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>129555.2655887054</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>130841.9792887054</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>132142.2127887054</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>133201.8005971519</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>141711.8665887054</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>231893.5877118391</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>220841.1656572465</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>218999.2348572465</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>219056.3331572466</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>219146.237561126</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>224531.5608268421</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>225448.144061126</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>229125.066961126</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>230766.130361126</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>242073.2894036927</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>239789.7760179513</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>237953.2593179513</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>237201.7398179513</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>237283.8710179513</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>237283.8710179513</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>238133.1038179513</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>237327.1636179513</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>236294.8220179513</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>235501.4480179513</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>234697.8292179513</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>235789.9025179513</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>239080.2187179512</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>242887.7725179512</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>242889.7725179512</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>242673.8226179512</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>235082.9016179512</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>235083.6948179512</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>258894.4432179512</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>257199.6144179512</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>257029.8973179512</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>256634.9502179512</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>257112.6387179512</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>257164.7066179512</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>256726.6401179512</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>256723.6401179512</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>255459.6645179512</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>255459.6645179512</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>254564.7439179512</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>266322.9106179512</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>267593.1161179512</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>273435.7458179512</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>277113.7427179512</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>267797.6533179512</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>265557.6696179512</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>265999.2432179512</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>270254.8534179512</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>268476.1898179512</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>266023.3074179512</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>266023.3074179512</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>266023.3074179512</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>266222.8362179511</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>265385.8635179512</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>264089.4330179511</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>262072.7886179512</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>260575.9716179511</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>256641.0372460802</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>262998.9074460801</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>262815.6417460801</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>260872.9890460801</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>258377.1924460802</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>257118.8751460802</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>268309.3110460801</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>268606.7870460802</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>269598.4022460802</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>278000.9084460802</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>278101.9084460802</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>281807.2652460802</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>279163.403300836</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>279163.403300836</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>278995.752800836</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>278616.810800836</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>278628.780800836</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>279968.204600836</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>279968.204600836</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>279968.204600836</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>279968.204600836</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>279868.454600836</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>279704.4147531676</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>279703.4147531676</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>279703.4147531676</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>280504.4147531676</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>280504.4147531676</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>280658.7721054992</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>280989.7321054992</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>279921.0486054993</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>279925.0486054993</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>279933.0486054993</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>279933.0486054993</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>279516.3387054992</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>279516.3387054992</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>279593.2864054993</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>279450.6617054993</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>280062.4244054993</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>279941.3510054993</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>280110.0513054993</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>279671.244457831</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>278194.434957831</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>278194.434957831</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>278194.434957831</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>277667.821057831</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>277669.021057831</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>277667.821057831</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>277670.521057831</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>277670.521057831</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>277957.556057831</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>277997.956057831</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>283667.956057831</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>283936.124257831</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>283896.912357831</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>283933.244857831</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>284225.121857831</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>284673.052357831</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>283106.792157831</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>283106.792157831</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>283106.792157831</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>285824.326757831</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>288681.297057831</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>288848.864357831</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>288848.864357831</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>284297.162157831</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>284297.262157831</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>284144.562157831</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>283104.9838744763</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>283107.0838744763</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>283106.7604866033</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>283107.0820753285</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>282991.5820753285</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>282991.2606009695</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>283091.6980266106</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>282418.6395447564</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>282397.2547447564</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>282772.7074447565</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>282494.0172447565</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>282494.2172447565</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>282494.3172447564</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>282364.3132447564</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>282484.9964447565</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>283438.4967655778</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>283438.4967655778</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>283157.5499655778</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>283157.5499655778</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>283157.6499655778</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>283136.2499655777</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>283039.0499655777</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>282928.1500655777</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>282928.1500655777</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>282555.5071655777</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>281649.0346655778</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>279815.5678655778</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>279815.6678655777</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>276683.8305655777</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>274043.4657655777</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>267764.0860655778</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>267893.8790655778</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>268347.9116655777</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>266826.7113655777</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>266855.3787655777</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>266680.6264655777</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>264815.9844655777</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>265046.8448655777</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>265146.1275655777</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>265164.1275655777</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>265216.3915655777</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>265234.3915655777</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>264781.0108655777</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>265068.8990655777</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>265551.0549655777</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>267320.0931655777</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>267297.6509655777</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>267348.1459655777</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>267177.2516655777</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>267177.2516655777</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>267177.2516655777</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>266590.5788655777</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>265787.8275655777</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>265072.9836655777</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 LINK ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>21847.00775937536</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>36844.34254000196</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>33595.44444000196</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>44385.56634000196</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>45607.93944000196</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>45636.30894000196</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>45652.50894000196</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>47611.08284000196</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>47622.19949465714</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>46444.67264931231</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>46443.67264931231</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>46442.67264931231</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>67584.27932342874</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>70459.27932342874</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>74429.96202342874</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>75806.20392342874</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>74530.11512342874</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>79671.9228615126</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>85257.56386151261</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>98392.57449202107</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>99242.81759202108</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>102071.9484920211</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>98776.06429202108</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>98716.83819202108</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>96569.15759202107</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>96663.26179202108</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>97563.80979202107</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>97513.37619202107</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>96454.60809202107</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>99811.77319202106</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>102761.6713920211</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>104653.9437895017</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>104512.6297568041</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>106222.6887568041</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>106236.5457568041</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>106225.2553568041</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>106218.4087351825</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>105652.3357351825</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>105669.4749351825</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>105648.6132351825</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>105074.2029351825</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>109692.8055351825</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>107975.1627351825</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>107832.0291351825</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>107794.0151351825</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>107784.6774351825</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>108804.3531351826</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>108801.3531351826</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>110027.4906351825</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>110118.9995351825</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>112894.9602351825</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>113162.5216351826</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>113154.0098351826</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>112235.5522351826</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>112219.7767351826</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>111726.5385351826</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>111725.8705351825</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>112737.9001950602</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>115938.2332396388</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>116031.9182396388</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>118484.0213396388</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>118703.4211396388</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>120806.6649990096</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>120731.2306990096</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>120617.0006286814</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>120587.0006286814</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>121612.0898391904</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>122219.8045639479</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>120846.6204887053</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>120784.0888887053</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>120345.5932887053</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>119884.2757887053</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>117772.6569887053</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>117832.5340887053</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>115964.5339887053</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>115977.1418887053</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>115705.3617887054</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>115679.8138887054</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>115812.4221887054</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>118143.9095887054</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>118572.0379887054</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>117680.8928887054</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>118360.2448887054</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>119279.2959887054</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>118270.0469887054</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>118215.9973887054</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>125597.5987887054</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>129555.2655887054</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>130841.9792887054</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>132142.2127887054</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>133201.8005971519</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>141711.8665887054</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>190410.3113043434</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>183775.3403043434</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>188402.4428542148</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>187412.6832542148</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>179720.5981542148</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>186243.3634542148</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>218184.1319345428</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>217988.0380345428</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>219554.8554572465</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>220841.1656572465</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>218999.2348572465</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>219056.3331572466</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>219146.237561126</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>224531.5608268421</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>225448.144061126</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>229125.066961126</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>230766.130361126</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>242073.2894036927</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>239789.7760179513</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>237953.2593179513</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>237201.7398179513</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>237283.8710179513</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>237283.8710179513</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>238133.1038179513</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>237327.1636179513</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>236294.8220179513</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>235501.4480179513</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>234697.8292179513</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>235789.9025179513</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>239080.2187179512</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>242887.7725179512</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>242889.7725179512</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>242673.8226179512</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>235082.9016179512</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>235083.6948179512</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>258894.4432179512</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>257199.6144179512</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>257029.8973179512</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>256634.9502179512</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>257112.6387179512</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>257164.7066179512</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>256726.6401179512</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>256723.6401179512</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>270254.8534179512</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>279868.454600836</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>284297.262157831</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
